--- a/export/queue_log_data_2018-08-02 - 2018-08-02.xlsx
+++ b/export/queue_log_data_2018-08-02 - 2018-08-02.xlsx
@@ -418,104 +418,104 @@
     <row r="8" spans="1:10">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>505028</t>
+          <t>322876</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>นาย ปฐมพงค์ น้ำหว้า</t>
+          <t>นาย ไชยา รวมมิตร</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>B001</t>
+          <t>A006</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>20000000004</t>
+          <t>ไม่มีรหัสลูกค้าจากบิล</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>08:50:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:03:00</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>08:50:10</t>
+          <t>09:03:00</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>08:56:01</t>
+          <t>09:03:00</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>505028</t>
+          <t>322876</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>นาย ปฐมพงค์ น้ำหว้า</t>
+          <t>นาย ไชยา รวมมิตร</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>B001</t>
+          <t>A007</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>20000000005</t>
+          <t>ไม่มีรหัสลูกค้าจากบิล</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>08:50:00</t>
+          <t>10:25:00</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>08:50:10</t>
+          <t>10:25:43</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>08:56:01</t>
+          <t>ยกเลิกบริการ</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>20000000006</t>
+          <t>20000000004</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>20000000007</t>
+          <t>20000000005</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>20000000008</t>
+          <t>20000000006</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>20000000009</t>
+          <t>20000000007</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>20000000010</t>
+          <t>20000000008</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>20000000011</t>
+          <t>20000000009</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
@@ -849,32 +849,32 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>B002</t>
+          <t>B001</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>20000000015</t>
+          <t>20000000010</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>08:51:32</t>
+          <t>08:50:00</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>00:06:38</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>08:58:10</t>
+          <t>08:50:10</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>08:59:45</t>
+          <t>08:56:01</t>
         </is>
       </c>
       <c r="J16" s="0" t="inlineStr">
@@ -901,32 +901,32 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>B002</t>
+          <t>B001</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>20000000016</t>
+          <t>20000000011</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>08:51:32</t>
+          <t>08:50:00</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>00:06:38</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>08:58:10</t>
+          <t>08:50:10</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>08:59:45</t>
+          <t>08:56:01</t>
         </is>
       </c>
       <c r="J17" s="0" t="inlineStr">
@@ -958,30 +958,290 @@
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
+          <t>20000000015</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>08:51:32</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>00:06:38</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>08:58:10</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>08:59:45</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>505028</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>นาย ปฐมพงค์ น้ำหว้า</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>B002</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>20000000016</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>08:51:32</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>00:06:38</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>08:58:10</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>08:59:45</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>505028</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>นาย ปฐมพงค์ น้ำหว้า</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>B002</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
           <t>20000000017</t>
         </is>
       </c>
-      <c r="F18" s="0" t="inlineStr">
+      <c r="F20" s="0" t="inlineStr">
         <is>
           <t>08:51:32</t>
         </is>
       </c>
-      <c r="G18" s="0" t="inlineStr">
+      <c r="G20" s="0" t="inlineStr">
         <is>
           <t>00:06:38</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
+      <c r="H20" s="0" t="inlineStr">
         <is>
           <t>08:58:10</t>
         </is>
       </c>
-      <c r="I18" s="0" t="inlineStr">
+      <c r="I20" s="0" t="inlineStr">
         <is>
           <t>08:59:45</t>
         </is>
       </c>
-      <c r="J18" s="0" t="inlineStr">
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>505028</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>นาย ปฐมพงค์ น้ำหว้า</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>B003</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>ไม่มีรหัสลูกค้าจากบิล</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>09:10:00</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>00:00:02</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>09:10:02</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>09:12:00</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>505028</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>นาย ปฐมพงค์ น้ำหว้า</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>B004</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>ไม่มีรหัสลูกค้าจากบิล</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>00:02:00</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>10:02:00</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>10:11:00</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>505028</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>นาย ปฐมพงค์ น้ำหว้า</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>B005</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>ไม่มีรหัสลูกค้าจากบิล</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>10:24:06</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>00:00:03</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>10:24:09</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>10:34:00</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
         <is>
           <t>5</t>
         </is>
